--- a/src/day17/day17.xlsx
+++ b/src/day17/day17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfloris\GIT development\AdventOfCode2023\src\day17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91348919-7BC8-4123-B64B-F8BE3675D494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A748F-9BF6-45B4-BFB5-64A09F7B9374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6B3E386E-6D9F-4B95-95F8-1196E63C2224}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B3E386E-6D9F-4B95-95F8-1196E63C2224}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>2413432311323</t>
   </si>
@@ -76,18 +76,6 @@
   </si>
   <si>
     <t>4322674655533</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>&lt;</t>
   </si>
   <si>
     <t>Heat Loss</t>
@@ -214,6 +202,9 @@
   </si>
   <si>
     <t>3332211223122224111214421132412325</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -610,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4079E27F-D314-42CA-A8E9-D95EE03A2351}">
   <dimension ref="A1:AS60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="AV27" sqref="AV27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1601,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="AE16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:45">
@@ -1613,102 +1604,78 @@
         <v/>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" ref="E17:O29" si="3">MID($A17,F$1+1,1)</f>
-        <v/>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>55</v>
       </c>
       <c r="Q17" s="3">
         <f>IF(C17&lt;&gt;"",1,0)*C2</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" ref="R17:AC17" si="4">IF(D17&lt;&gt;"",1,0)*D2</f>
+        <f t="shared" ref="R17:AC17" si="3">IF(D17&lt;&gt;"",1,0)*D2</f>
         <v>4</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Y17" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE17">
         <f>SUM(Q17:AC29)</f>
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:45">
@@ -1716,102 +1683,62 @@
         <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18:D29" si="5">MID($A18,C$1+1,1)</f>
-        <v/>
-      </c>
-      <c r="D18" t="str">
+        <f t="shared" ref="C18:D29" si="4">MID($A18,C$1+1,1)</f>
+        <v/>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" ref="Q18:AC18" si="5">IF(C18&lt;&gt;"",1,0)*C3</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" ref="Q18:AC18" si="6">IF(C18&lt;&gt;"",1,0)*C3</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1821,1196 +1748,736 @@
         <v>2</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" ref="Q19:AC19" si="7">IF(C19&lt;&gt;"",1,0)*C4</f>
+        <f t="shared" ref="Q19:AC19" si="6">IF(C19&lt;&gt;"",1,0)*C4</f>
         <v>0</v>
       </c>
       <c r="R19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:45">
+      <c r="B20" s="2">
+        <f t="shared" ref="B20:B29" si="7">B19+1</f>
+        <v>3</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" ref="Q20:AC20" si="8">IF(C20&lt;&gt;"",1,0)*C5</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:45">
+      <c r="B21" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" ref="Q21:AC21" si="9">IF(C21&lt;&gt;"",1,0)*C6</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:45">
+      <c r="B22" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="Z19" s="4">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AA19" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:45">
-      <c r="B20" s="2">
-        <f t="shared" ref="B20:B29" si="8">B19+1</f>
-        <v>3</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q20" s="3">
-        <f t="shared" ref="Q20:AC20" si="9">IF(C20&lt;&gt;"",1,0)*C5</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="4">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AB20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:45">
-      <c r="B21" s="2">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q21" s="3">
-        <f t="shared" ref="Q21:AC21" si="10">IF(C21&lt;&gt;"",1,0)*C6</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="C22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" ref="Q22:AC22" si="10">IF(C22&lt;&gt;"",1,0)*C7</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S22" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T22" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U22" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V22" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W22" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="4">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AB22" s="4">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AC22" s="3">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AC21" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:45">
-      <c r="B22" s="2">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" ref="Q22:AC22" si="11">IF(C22&lt;&gt;"",1,0)*C7</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="4">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AC22" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:45">
       <c r="B23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O23" t="s">
+        <v>55</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" ref="Q23:AC23" si="12">IF(C23&lt;&gt;"",1,0)*C8</f>
+        <f t="shared" ref="Q23:AC23" si="11">IF(C23&lt;&gt;"",1,0)*C8</f>
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <f t="shared" si="11"/>
         <v>6</v>
-      </c>
-      <c r="AC23" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:45">
       <c r="B24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N24" t="s">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="O24" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" ref="Q24:AC24" si="13">IF(C24&lt;&gt;"",1,0)*C9</f>
+        <f t="shared" ref="Q24:AC24" si="12">IF(C24&lt;&gt;"",1,0)*C9</f>
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB24" s="4">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AC24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:45">
       <c r="B25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O25" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" ref="Q25:AC25" si="14">IF(C25&lt;&gt;"",1,0)*C10</f>
+        <f t="shared" ref="Q25:AC25" si="13">IF(C25&lt;&gt;"",1,0)*C10</f>
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC25" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:45">
       <c r="B26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O26" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" ref="Q26:AC26" si="15">IF(C26&lt;&gt;"",1,0)*C11</f>
+        <f t="shared" ref="Q26:AC26" si="14">IF(C26&lt;&gt;"",1,0)*C11</f>
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC26" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:45">
       <c r="B27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N27" t="s">
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="O27" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" ref="Q27:AC27" si="16">IF(C27&lt;&gt;"",1,0)*C12</f>
+        <f t="shared" ref="Q27:AC27" si="15">IF(C27&lt;&gt;"",1,0)*C12</f>
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB27" s="4">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AC27" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:45">
       <c r="B28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O28" t="s">
+        <v>55</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" ref="Q28:AC28" si="17">IF(C28&lt;&gt;"",1,0)*C13</f>
+        <f t="shared" ref="Q28:AC28" si="16">IF(C28&lt;&gt;"",1,0)*C13</f>
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA28" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB28" s="4">
-        <f t="shared" si="17"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:45">
       <c r="B29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N29" t="s">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="O29" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" ref="Q29:AC29" si="18">IF(C29&lt;&gt;"",1,0)*C14</f>
+        <f t="shared" ref="Q29:AC29" si="17">IF(C29&lt;&gt;"",1,0)*C14</f>
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V29" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X29" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y29" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB29" s="4">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="AC29" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:45">
       <c r="C30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -3106,7 +2573,7 @@
         <v>12</v>
       </c>
       <c r="AE31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG31" s="2">
         <v>0</v>
@@ -3152,113 +2619,90 @@
       <c r="B32" s="2">
         <v>0</v>
       </c>
-      <c r="C32" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v>3</v>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E32" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v>7</v>
-      </c>
-      <c r="F32" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v>9</v>
-      </c>
-      <c r="H32" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v>10</v>
-      </c>
-      <c r="I32" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J32" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K32" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v>15</v>
-      </c>
-      <c r="L32" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v>16</v>
-      </c>
-      <c r="M32" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v>17</v>
-      </c>
-      <c r="N32" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v>18</v>
-      </c>
-      <c r="O32" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B32),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="4">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="Q32" s="3">
         <f>IF(C32&lt;&gt;"",1,0)*C2</f>
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" ref="R32:AC32" si="19">IF(D32&lt;&gt;"",1,0)*D2</f>
-        <v>0</v>
+        <f t="shared" ref="R32:AC32" si="18">IF(D32&lt;&gt;"",1,0)*D2</f>
+        <v>4</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="U32" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="Y32" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="Z32" s="3">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="19"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="AB32" s="3">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE32">
         <f>SUM(Q32:AC44)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AF32" s="2">
         <v>0</v>
@@ -3307,109 +2751,72 @@
       <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v>4</v>
-      </c>
-      <c r="D33" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v>6</v>
-      </c>
-      <c r="F33" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G33" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H33" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v>11</v>
-      </c>
-      <c r="I33" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v>12</v>
-      </c>
-      <c r="J33" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v>13</v>
-      </c>
-      <c r="K33" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v>14</v>
-      </c>
-      <c r="L33" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M33" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N33" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v>19</v>
-      </c>
-      <c r="O33" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B33),Path!$K:$K,0),"")</f>
-        <v>20</v>
-      </c>
-      <c r="Q33" s="4">
-        <f t="shared" ref="Q33:AC33" si="20">IF(C33&lt;&gt;"",1,0)*C3</f>
-        <v>3</v>
-      </c>
-      <c r="R33" s="4">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="S33" s="4">
-        <f t="shared" si="20"/>
-        <v>1</v>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="Q33" s="3">
+        <f t="shared" ref="Q33:AC33" si="19">IF(C33&lt;&gt;"",1,0)*C3</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="Z33" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB33" s="3">
-        <f t="shared" si="20"/>
-        <v>2</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="AF33" s="2">
         <v>1</v>
@@ -3459,109 +2866,72 @@
         <f>B33+1</f>
         <v>2</v>
       </c>
-      <c r="C34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N34" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O34" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B34),Path!$K:$K,0),"")</f>
-        <v>21</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
       <c r="Q34" s="3">
-        <f t="shared" ref="Q34:AC34" si="21">IF(C34&lt;&gt;"",1,0)*C4</f>
+        <f t="shared" ref="Q34:AC34" si="20">IF(C34&lt;&gt;"",1,0)*C4</f>
         <v>0</v>
       </c>
       <c r="R34" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V34" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W34" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X34" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y34" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>5</v>
       </c>
       <c r="Z34" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA34" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB34" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" si="21"/>
-        <v>4</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="AF34" s="2">
         <f>AF33+1</f>
@@ -3609,115 +2979,78 @@
     </row>
     <row r="35" spans="1:45">
       <c r="B35" s="2">
-        <f t="shared" ref="B35:B44" si="22">B34+1</f>
-        <v>3</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N35" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O35" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B35),Path!$K:$K,0),"")</f>
-        <v>22</v>
-      </c>
+        <f t="shared" ref="B35:B44" si="21">B34+1</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
       <c r="Q35" s="3">
-        <f t="shared" ref="Q35:AC35" si="23">IF(C35&lt;&gt;"",1,0)*C5</f>
+        <f t="shared" ref="Q35:AC35" si="22">IF(C35&lt;&gt;"",1,0)*C5</f>
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y35" s="3">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="Z35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB35" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" si="23"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AF35" s="2">
-        <f t="shared" ref="AF35:AF44" si="24">AF34+1</f>
+        <f t="shared" ref="AF35:AF44" si="23">AF34+1</f>
         <v>3</v>
       </c>
       <c r="AG35">
@@ -3762,115 +3095,86 @@
     </row>
     <row r="36" spans="1:45">
       <c r="B36" s="2">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="C36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N36" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O36" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B36),Path!$K:$K,0),"")</f>
-        <v>23</v>
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" ref="Q36:AC36" si="25">IF(C36&lt;&gt;"",1,0)*C6</f>
+        <f t="shared" ref="Q36:AC36" si="24">IF(C36&lt;&gt;"",1,0)*C6</f>
         <v>0</v>
       </c>
       <c r="R36" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S36" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T36" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X36" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y36" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>6</v>
       </c>
       <c r="Z36" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>7</v>
       </c>
       <c r="AA36" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>5</v>
       </c>
       <c r="AB36" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>3</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="AF36" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AG36">
@@ -3915,115 +3219,78 @@
     </row>
     <row r="37" spans="1:45">
       <c r="B37" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="C37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N37" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O37" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B37),Path!$K:$K,0),"")</f>
-        <v>24</v>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" ref="Q37:AC37" si="26">IF(C37&lt;&gt;"",1,0)*C7</f>
+        <f t="shared" ref="Q37:AC37" si="25">IF(C37&lt;&gt;"",1,0)*C7</f>
         <v>0</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="3">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X37" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z37" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA37" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB37" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC37" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AF37" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AG37">
@@ -4068,115 +3335,78 @@
     </row>
     <row r="38" spans="1:45">
       <c r="B38" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="C38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N38" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O38" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B38),Path!$K:$K,0),"")</f>
-        <v>25</v>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" ref="Q38:AC38" si="27">IF(C38&lt;&gt;"",1,0)*C8</f>
+        <f t="shared" ref="Q38:AC38" si="26">IF(C38&lt;&gt;"",1,0)*C8</f>
         <v>0</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V38" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="4">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z38" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AA38" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB38" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="AF38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="AG38">
@@ -4221,115 +3451,78 @@
     </row>
     <row r="39" spans="1:45">
       <c r="B39" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="C39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N39" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O39" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B39),Path!$K:$K,0),"")</f>
-        <v>26</v>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" ref="Q39:AC39" si="28">IF(C39&lt;&gt;"",1,0)*C9</f>
+        <f t="shared" ref="Q39:AC39" si="27">IF(C39&lt;&gt;"",1,0)*C9</f>
         <v>0</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S39" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V39" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W39" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X39" s="3">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="3">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Z39" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AB39" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="AF39" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="AG39">
@@ -4374,115 +3567,78 @@
     </row>
     <row r="40" spans="1:45">
       <c r="B40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="C40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N40" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O40" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B40),Path!$K:$K,0),"")</f>
-        <v>27</v>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" ref="Q40:AC40" si="29">IF(C40&lt;&gt;"",1,0)*C10</f>
+        <f t="shared" ref="Q40:AC40" si="28">IF(C40&lt;&gt;"",1,0)*C10</f>
         <v>0</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V40" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X40" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="4">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AB40" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="AF40" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="AG40">
@@ -4527,115 +3683,78 @@
     </row>
     <row r="41" spans="1:45">
       <c r="B41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="C41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N41" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O41" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B41),Path!$K:$K,0),"")</f>
-        <v>28</v>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" ref="Q41:AC41" si="30">IF(C41&lt;&gt;"",1,0)*C11</f>
+        <f t="shared" ref="Q41:AC41" si="29">IF(C41&lt;&gt;"",1,0)*C11</f>
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="AF41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="AG41">
@@ -4680,115 +3799,78 @@
     </row>
     <row r="42" spans="1:45">
       <c r="B42" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="C42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N42" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O42" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B42),Path!$K:$K,0),"")</f>
-        <v>29</v>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" ref="Q42:AC42" si="31">IF(C42&lt;&gt;"",1,0)*C12</f>
+        <f t="shared" ref="Q42:AC42" si="30">IF(C42&lt;&gt;"",1,0)*C12</f>
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="X42" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y42" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="4">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="4">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AF42" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="AG42">
@@ -4833,115 +3915,78 @@
     </row>
     <row r="43" spans="1:45">
       <c r="B43" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
-      <c r="C43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N43" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O43" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B43),Path!$K:$K,0),"")</f>
-        <v>30</v>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" ref="Q43:AC43" si="32">IF(C43&lt;&gt;"",1,0)*C13</f>
+        <f t="shared" ref="Q43:AC43" si="31">IF(C43&lt;&gt;"",1,0)*C13</f>
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="AF43" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="AG43">
@@ -4986,115 +4031,78 @@
     </row>
     <row r="44" spans="1:45">
       <c r="B44" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="C44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(C$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="D44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(D$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="E44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(E$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="F44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(F$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="G44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(G$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="H44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(H$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="I44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(I$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(J$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="K44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(K$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="L44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(L$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="M44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(M$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="N44" s="3" t="str">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(N$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v/>
-      </c>
-      <c r="O44" s="3">
-        <f>IFERROR(MATCH(_xlfn.CONCAT(O$31,"-",$B44),Path!$K:$K,0),"")</f>
-        <v>31</v>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" ref="Q44:AC44" si="33">IF(C44&lt;&gt;"",1,0)*C14</f>
+        <f t="shared" ref="Q44:AC44" si="32">IF(C44&lt;&gt;"",1,0)*C14</f>
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z44" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AB44" s="4">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="AF44" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="AG44">
@@ -5180,7 +4188,7 @@
     </row>
     <row r="48" spans="1:45">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -5193,754 +4201,754 @@
         <v>2</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" ref="E48:O60" si="34">MID($A48,E$1+1,1)</f>
+        <f t="shared" ref="E48:O60" si="33">MID($A48,E$1+1,1)</f>
         <v>2</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="K48" t="str">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" ref="C49:D60" si="34">MID($A49,C$1+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D49" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="L48" t="str">
+      <c r="E49" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2">
+        <f>B49+1</f>
+        <v>2</v>
+      </c>
+      <c r="C50" t="str">
         <f t="shared" si="34"/>
         <v>2</v>
       </c>
-      <c r="M48" t="str">
+      <c r="D50" t="str">
         <f t="shared" si="34"/>
         <v>3</v>
       </c>
-      <c r="N48" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="O48" t="str">
+      <c r="E50" t="str">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" ref="B51:B60" si="35">B50+1</f>
+        <v>3</v>
+      </c>
+      <c r="C51" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="D51" t="str">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" ref="C49:D60" si="35">MID($A49,C$1+1,1)</f>
+      <c r="G51" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="35"/>
+      <c r="I51" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="J49" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="K49" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="M49" t="str">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="O49" t="str">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="2">
-        <f>B49+1</f>
-        <v>2</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="I50" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="L50" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="M50" t="str">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="O50" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="2">
-        <f t="shared" ref="B51:B60" si="36">B50+1</f>
-        <v>3</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
       <c r="M51" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="B53" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="B54" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="B55" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="B56" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="B57" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="B58" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="B60" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -5967,32 +4975,32 @@
   <sheetData>
     <row r="1" spans="3:11">
       <c r="E1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="3:11">
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="3:11">
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <f>FIND("=&gt;",C3,1)</f>
@@ -6024,7 +5032,7 @@
     </row>
     <row r="4" spans="3:11">
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E27" si="0">FIND("=&gt;",C4,1)</f>
@@ -6056,7 +5064,7 @@
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -6088,7 +5096,7 @@
     </row>
     <row r="6" spans="3:11">
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -6120,7 +5128,7 @@
     </row>
     <row r="7" spans="3:11">
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -6152,7 +5160,7 @@
     </row>
     <row r="8" spans="3:11">
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -6184,7 +5192,7 @@
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -6216,7 +5224,7 @@
     </row>
     <row r="10" spans="3:11">
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -6248,7 +5256,7 @@
     </row>
     <row r="11" spans="3:11">
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -6280,7 +5288,7 @@
     </row>
     <row r="12" spans="3:11">
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -6312,7 +5320,7 @@
     </row>
     <row r="13" spans="3:11">
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -6344,7 +5352,7 @@
     </row>
     <row r="14" spans="3:11">
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -6376,7 +5384,7 @@
     </row>
     <row r="15" spans="3:11">
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -6408,7 +5416,7 @@
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -6440,7 +5448,7 @@
     </row>
     <row r="17" spans="3:11">
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -6472,7 +5480,7 @@
     </row>
     <row r="18" spans="3:11">
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -6504,7 +5512,7 @@
     </row>
     <row r="19" spans="3:11">
       <c r="C19" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -6536,7 +5544,7 @@
     </row>
     <row r="20" spans="3:11">
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -6568,7 +5576,7 @@
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
@@ -6600,7 +5608,7 @@
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -6632,7 +5640,7 @@
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
@@ -6664,7 +5672,7 @@
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -6696,7 +5704,7 @@
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
@@ -6728,7 +5736,7 @@
     </row>
     <row r="26" spans="3:11">
       <c r="C26" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
@@ -6760,7 +5768,7 @@
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
@@ -6792,7 +5800,7 @@
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <f t="shared" ref="E28" si="6">FIND("=&gt;",C28,1)</f>
@@ -6824,7 +5832,7 @@
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <f t="shared" ref="E29:E31" si="12">FIND("=&gt;",C29,1)</f>
@@ -6856,7 +5864,7 @@
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <f t="shared" si="12"/>
@@ -6888,7 +5896,7 @@
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E31">
         <f t="shared" si="12"/>
